--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A7FFA-7C7D-4027-BFE6-4B7F3E3C38BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3A1AB-BFAE-4431-B0A2-5B331BA0EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="8" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016authors" sheetId="5" r:id="rId1"/>
@@ -5093,8 +5093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BCEF8-726C-42C3-B6B7-D2E60D7AE6BE}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A80" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6704,8 +6704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A243" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12149,8 +12149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F118BAD-928A-442C-8174-D36410CC770A}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A115" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17580,8 +17580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A184" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24597,8 +24597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31592,8 +31592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28C973-723A-458A-B18E-3550EF77ACE0}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35658,7 +35658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D206AE6-D67B-4992-B0DC-5F582476AD63}">
   <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A195" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>

--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3A1AB-BFAE-4431-B0A2-5B331BA0EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF0C71-F8A5-4EC3-91AA-D5827CC7DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" firstSheet="1" activeTab="7" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016authors" sheetId="5" r:id="rId1"/>
@@ -6704,8 +6704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B271"/>
+    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24597,7 +24597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9BF568-6440-4200-94F4-9E9147DF6D37}">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
@@ -31592,8 +31592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28C973-723A-458A-B18E-3550EF77ACE0}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32866,7 +32866,7 @@
         <v>44</v>
       </c>
       <c r="F63">
-        <v>2091</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -35658,7 +35658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D206AE6-D67B-4992-B0DC-5F582476AD63}">
   <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A173" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>

--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BF0C71-F8A5-4EC3-91AA-D5827CC7DB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394F435-466F-4FF8-B718-4013D4B84179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" firstSheet="1" activeTab="7" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6037" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6037" uniqueCount="1561">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -4721,9 +4721,6 @@
   </si>
   <si>
     <t>Zambia</t>
-  </si>
-  <si>
-    <t>Colombia, USA</t>
   </si>
   <si>
     <t>Finland</t>
@@ -6704,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:F73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8268,7 +8265,7 @@
         <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>1559</v>
+        <v>43</v>
       </c>
       <c r="D78">
         <v>18</v>
@@ -9628,7 +9625,7 @@
         <v>1408</v>
       </c>
       <c r="C146" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D146">
         <v>45</v>
@@ -9648,7 +9645,7 @@
         <v>1410</v>
       </c>
       <c r="C147" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D147">
         <v>45</v>
@@ -9668,7 +9665,7 @@
         <v>1412</v>
       </c>
       <c r="C148" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D148">
         <v>45</v>
@@ -9688,7 +9685,7 @@
         <v>1414</v>
       </c>
       <c r="C149" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D149">
         <v>45</v>
@@ -9708,7 +9705,7 @@
         <v>1416</v>
       </c>
       <c r="C150" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D150">
         <v>46</v>
@@ -9728,7 +9725,7 @@
         <v>1418</v>
       </c>
       <c r="C151" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D151">
         <v>46</v>
@@ -9748,7 +9745,7 @@
         <v>1420</v>
       </c>
       <c r="C152" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D152">
         <v>46</v>
@@ -9768,7 +9765,7 @@
         <v>1422</v>
       </c>
       <c r="C153" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D153">
         <v>46</v>
@@ -10588,7 +10585,7 @@
         <v>1478</v>
       </c>
       <c r="C194" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D194">
         <v>57</v>
@@ -10628,7 +10625,7 @@
         <v>1482</v>
       </c>
       <c r="C196" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D196">
         <v>57</v>
@@ -10648,7 +10645,7 @@
         <v>1484</v>
       </c>
       <c r="C197" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D197">
         <v>57</v>
@@ -10668,7 +10665,7 @@
         <v>1486</v>
       </c>
       <c r="C198" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D198">
         <v>57</v>
@@ -31592,7 +31589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28C973-723A-458A-B18E-3550EF77ACE0}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>

--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8196259C-33FD-4D0D-B975-BEDC98B06913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA8411-A309-4015-99FB-F60358EA6A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="713" firstSheet="1" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7125" uniqueCount="1574">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -4748,6 +4748,24 @@
   </si>
   <si>
     <t>Ecuador,Peru</t>
+  </si>
+  <si>
+    <t>Brazil,Venezuela</t>
+  </si>
+  <si>
+    <t>Argentina,Brazil,Chile</t>
+  </si>
+  <si>
+    <t>Peru,Argentina,Brazil,Costa Rica,Guatemala,</t>
+  </si>
+  <si>
+    <t>Argentina,Chile</t>
+  </si>
+  <si>
+    <t>Colombia,Ecuador,Peru</t>
+  </si>
+  <si>
+    <t>Argentina,Brazil,French Guiana,Colombia,Costa Rica, Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -6722,7 +6740,7 @@
   <dimension ref="A1:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11505,7 +11523,7 @@
         <v>2020</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -11528,7 +11546,7 @@
         <v>2020</v>
       </c>
       <c r="G208" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -11551,7 +11569,7 @@
         <v>2020</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -11574,7 +11592,7 @@
         <v>2020</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -11597,7 +11615,7 @@
         <v>2020</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -11620,7 +11638,7 @@
         <v>2020</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -11643,7 +11661,7 @@
         <v>2020</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -11666,7 +11684,7 @@
         <v>2020</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -11689,7 +11707,7 @@
         <v>2020</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -11712,7 +11730,7 @@
         <v>2020</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -11735,7 +11753,7 @@
         <v>2020</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -11758,7 +11776,7 @@
         <v>2020</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -11781,7 +11799,7 @@
         <v>2020</v>
       </c>
       <c r="G219" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -11804,7 +11822,7 @@
         <v>2020</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -11827,7 +11845,7 @@
         <v>2020</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -11850,7 +11868,7 @@
         <v>2020</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -11873,7 +11891,7 @@
         <v>2020</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -11896,7 +11914,7 @@
         <v>2020</v>
       </c>
       <c r="G224" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -11919,7 +11937,7 @@
         <v>2020</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -11942,7 +11960,7 @@
         <v>2020</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -11965,7 +11983,7 @@
         <v>2020</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -11988,7 +12006,7 @@
         <v>2020</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -12011,7 +12029,7 @@
         <v>2020</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -12034,7 +12052,7 @@
         <v>2020</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -12057,7 +12075,7 @@
         <v>2020</v>
       </c>
       <c r="G231" t="s">
-        <v>42</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -12990,7 +13008,7 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18877,17 +18895,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340776E-5870-435B-839E-52C83F300851}">
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -23683,7 +23707,7 @@
         <v>2017</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -23706,7 +23730,7 @@
         <v>2017</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -23729,7 +23753,7 @@
         <v>2017</v>
       </c>
       <c r="G210" t="s">
-        <v>38</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -23752,7 +23776,7 @@
         <v>2017</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -23775,7 +23799,7 @@
         <v>2017</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -23798,7 +23822,7 @@
         <v>2017</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
@@ -26559,15 +26583,13 @@
   <dimension ref="A1:K233"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -29063,7 +29085,7 @@
         <v>2018</v>
       </c>
       <c r="G108" t="s">
-        <v>353</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -29086,7 +29108,7 @@
         <v>2018</v>
       </c>
       <c r="G109" t="s">
-        <v>353</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -29684,7 +29706,7 @@
         <v>2018</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -29707,7 +29729,7 @@
         <v>2018</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -29730,7 +29752,7 @@
         <v>2018</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -29753,7 +29775,7 @@
         <v>2018</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -29776,7 +29798,7 @@
         <v>2018</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -29799,7 +29821,7 @@
         <v>2018</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -29822,7 +29844,7 @@
         <v>2018</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -29845,7 +29867,7 @@
         <v>2018</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -30190,7 +30212,7 @@
         <v>2018</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -30213,7 +30235,7 @@
         <v>2018</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -34262,7 +34284,7 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34272,7 +34294,7 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D535C62-12FE-42E6-9AD2-38F65ACBEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930904A-B296-4B86-A125-2F01D4B858ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
@@ -6914,7 +6914,7 @@
   <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13179,7 +13179,7 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20396,7 +20396,7 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20408,7 +20408,7 @@
     <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -30039,6 +30039,7 @@
   <cols>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -39818,7 +39819,7 @@
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data2016_2020.xlsx
+++ b/data/data2016_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curriculum\02_ Articulos\00 In progress\Network Analysis\NetworkAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930904A-B296-4B86-A125-2F01D4B858ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395EF9A-9EAA-4F1B-B261-F53CE80A7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="9" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{6051F781-E45E-480E-9273-6337D776603A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016authors" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9034" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="1665">
   <si>
     <t xml:space="preserve">main </t>
   </si>
@@ -4940,6 +4940,105 @@
   </si>
   <si>
     <t>Journal of Tropical Ecology</t>
+  </si>
+  <si>
+    <t>Estuarine, Coastal and Shelf Science</t>
+  </si>
+  <si>
+    <t>Environmental Entomology</t>
+  </si>
+  <si>
+    <t>Austral Entomology</t>
+  </si>
+  <si>
+    <t>AMBIO</t>
+  </si>
+  <si>
+    <t>BIOTROPICA</t>
+  </si>
+  <si>
+    <t>ZooKeys</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Inland Waters</t>
+  </si>
+  <si>
+    <t>Revista Mexicana de Biodiversidad</t>
+  </si>
+  <si>
+    <t>Entomological Science</t>
+  </si>
+  <si>
+    <t>Water, Air, &amp; Soil Pollution</t>
+  </si>
+  <si>
+    <t>Acta Biológica Colombiana</t>
+  </si>
+  <si>
+    <t>Austral Ecology</t>
+  </si>
+  <si>
+    <t>Biodiversity and Conservation</t>
+  </si>
+  <si>
+    <t>Gondwana Research</t>
+  </si>
+  <si>
+    <t>International Journal of Tropical Insect Science</t>
+  </si>
+  <si>
+    <t>Basic and Applied Ecology</t>
+  </si>
+  <si>
+    <t>Latin American Journal of Aquatic Research</t>
+  </si>
+  <si>
+    <t>Marine and Freshwater Research</t>
+  </si>
+  <si>
+    <t>Journal of Biogeography</t>
+  </si>
+  <si>
+    <t>Frontiers in Ecology and Evolution</t>
+  </si>
+  <si>
+    <t>Aquatic Botany</t>
+  </si>
+  <si>
+    <t>Annals of the Entomological Society of America</t>
+  </si>
+  <si>
+    <t>Journal of Applied Ecology</t>
+  </si>
+  <si>
+    <t>Biodiversity Data Journal</t>
+  </si>
+  <si>
+    <t>International Journal of Odonatology</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>Ecosphere</t>
+  </si>
+  <si>
+    <t>Journal of Applied Ichthyology</t>
+  </si>
+  <si>
+    <t>Limnology</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Aquatic Biology</t>
+  </si>
+  <si>
+    <t>Biological Conservation</t>
   </si>
 </sst>
 </file>
@@ -6913,7 +7012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DFBF45-B6E3-4682-9768-8C27BE0E9496}">
   <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -6925,37 +7024,40 @@
     <col min="4" max="4" width="6.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1562</v>
       </c>
     </row>
@@ -6981,6 +7083,15 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
+      <c r="H2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I2" t="s">
+        <v>959</v>
+      </c>
+      <c r="J2" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7004,6 +7115,15 @@
       <c r="G3" t="s">
         <v>43</v>
       </c>
+      <c r="H3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I3" t="s">
+        <v>959</v>
+      </c>
+      <c r="J3" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7027,6 +7147,15 @@
       <c r="G4" t="s">
         <v>43</v>
       </c>
+      <c r="H4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I4" t="s">
+        <v>959</v>
+      </c>
+      <c r="J4" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7050,6 +7179,15 @@
       <c r="G5" t="s">
         <v>43</v>
       </c>
+      <c r="H5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I5" t="s">
+        <v>959</v>
+      </c>
+      <c r="J5" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7073,6 +7211,15 @@
       <c r="G6" t="s">
         <v>43</v>
       </c>
+      <c r="H6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I6" t="s">
+        <v>959</v>
+      </c>
+      <c r="J6" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7096,6 +7243,15 @@
       <c r="G7" t="s">
         <v>1564</v>
       </c>
+      <c r="H7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I7" t="s">
+        <v>960</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7119,6 +7275,15 @@
       <c r="G8" t="s">
         <v>1564</v>
       </c>
+      <c r="H8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I8" t="s">
+        <v>960</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7142,6 +7307,15 @@
       <c r="G9" t="s">
         <v>1564</v>
       </c>
+      <c r="H9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I9" t="s">
+        <v>960</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7165,6 +7339,15 @@
       <c r="G10" t="s">
         <v>1564</v>
       </c>
+      <c r="H10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I10" t="s">
+        <v>960</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7188,6 +7371,15 @@
       <c r="G11" t="s">
         <v>1564</v>
       </c>
+      <c r="H11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I11" t="s">
+        <v>960</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7211,6 +7403,15 @@
       <c r="G12" t="s">
         <v>1564</v>
       </c>
+      <c r="H12" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I12" t="s">
+        <v>960</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7234,6 +7435,15 @@
       <c r="G13" t="s">
         <v>1564</v>
       </c>
+      <c r="H13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I13" t="s">
+        <v>960</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7257,6 +7467,15 @@
       <c r="G14" t="s">
         <v>1564</v>
       </c>
+      <c r="H14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I14" t="s">
+        <v>960</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7280,6 +7499,15 @@
       <c r="G15" t="s">
         <v>1564</v>
       </c>
+      <c r="H15" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I15" t="s">
+        <v>960</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7303,8 +7531,17 @@
       <c r="G16" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I16" t="s">
+        <v>960</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>836</v>
       </c>
@@ -7326,8 +7563,17 @@
       <c r="G17" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I17" t="s">
+        <v>960</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1257</v>
       </c>
@@ -7349,8 +7595,17 @@
       <c r="G18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1259</v>
       </c>
@@ -7372,8 +7627,17 @@
       <c r="G19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1261</v>
       </c>
@@ -7395,8 +7659,17 @@
       <c r="G20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1263</v>
       </c>
@@ -7418,8 +7691,17 @@
       <c r="G21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1265</v>
       </c>
@@ -7441,8 +7723,17 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1267</v>
       </c>
@@ -7464,8 +7755,17 @@
       <c r="G23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1269</v>
       </c>
@@ -7487,8 +7787,17 @@
       <c r="G24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1270</v>
       </c>
@@ -7510,8 +7819,17 @@
       <c r="G25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1272</v>
       </c>
@@ -7533,8 +7851,17 @@
       <c r="G26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -7556,8 +7883,17 @@
       <c r="G27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1274</v>
       </c>
@@ -7579,8 +7915,17 @@
       <c r="G28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1276</v>
       </c>
@@ -7602,8 +7947,17 @@
       <c r="G29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -7625,8 +7979,17 @@
       <c r="G30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -7648,8 +8011,17 @@
       <c r="G31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1278</v>
       </c>
@@ -7671,8 +8043,17 @@
       <c r="G32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -7694,8 +8075,17 @@
       <c r="G33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -7717,8 +8107,17 @@
       <c r="G34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1280</v>
       </c>
@@ -7740,8 +8139,17 @@
       <c r="G35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1282</v>
       </c>
@@ -7763,8 +8171,17 @@
       <c r="G36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -7786,8 +8203,17 @@
       <c r="G37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -7809,8 +8235,17 @@
       <c r="G38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>666</v>
       </c>
@@ -7832,8 +8267,17 @@
       <c r="G39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>391</v>
       </c>
@@ -7855,8 +8299,17 @@
       <c r="G40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>393</v>
       </c>
@@ -7878,8 +8331,17 @@
       <c r="G41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>395</v>
       </c>
@@ -7901,8 +8363,17 @@
       <c r="G42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>396</v>
       </c>
@@ -7924,8 +8395,17 @@
       <c r="G43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>397</v>
       </c>
@@ -7947,8 +8427,17 @@
       <c r="G44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>398</v>
       </c>
@@ -7970,8 +8459,17 @@
       <c r="G45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -7993,8 +8491,17 @@
       <c r="G46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I46" t="s">
+        <v>960</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1284</v>
       </c>
@@ -8016,8 +8523,17 @@
       <c r="G47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I47" t="s">
+        <v>960</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1077</v>
       </c>
@@ -8039,8 +8555,17 @@
       <c r="G48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I48" t="s">
+        <v>960</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -8062,8 +8587,17 @@
       <c r="G49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I49" t="s">
+        <v>960</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>359</v>
       </c>
@@ -8085,8 +8619,17 @@
       <c r="G50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I50" t="s">
+        <v>960</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1286</v>
       </c>
@@ -8108,8 +8651,17 @@
       <c r="G51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I51" t="s">
+        <v>960</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -8131,8 +8683,17 @@
       <c r="G52" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I52" t="s">
+        <v>960</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1288</v>
       </c>
@@ -8154,8 +8715,17 @@
       <c r="G53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1290</v>
       </c>
@@ -8177,8 +8747,17 @@
       <c r="G54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1292</v>
       </c>
@@ -8200,8 +8779,17 @@
       <c r="G55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -8223,8 +8811,17 @@
       <c r="G56" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1013</v>
       </c>
@@ -8246,8 +8843,17 @@
       <c r="G57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1135</v>
       </c>
@@ -8269,8 +8875,17 @@
       <c r="G58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1165</v>
       </c>
@@ -8292,8 +8907,17 @@
       <c r="G59" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -8315,8 +8939,17 @@
       <c r="G60" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1017</v>
       </c>
@@ -8338,8 +8971,17 @@
       <c r="G61" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1294</v>
       </c>
@@ -8361,8 +9003,17 @@
       <c r="G62" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I62" t="s">
+        <v>960</v>
+      </c>
+      <c r="J62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1296</v>
       </c>
@@ -8384,8 +9035,17 @@
       <c r="G63" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I63" t="s">
+        <v>960</v>
+      </c>
+      <c r="J63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1298</v>
       </c>
@@ -8407,8 +9067,17 @@
       <c r="G64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I64" t="s">
+        <v>960</v>
+      </c>
+      <c r="J64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>433</v>
       </c>
@@ -8430,8 +9099,17 @@
       <c r="G65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I65" t="s">
+        <v>960</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1300</v>
       </c>
@@ -8453,8 +9131,17 @@
       <c r="G66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I66" t="s">
+        <v>960</v>
+      </c>
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1302</v>
       </c>
@@ -8476,8 +9163,17 @@
       <c r="G67" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I67" t="s">
+        <v>960</v>
+      </c>
+      <c r="J67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1304</v>
       </c>
@@ -8499,8 +9195,17 @@
       <c r="G68" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I68" t="s">
+        <v>960</v>
+      </c>
+      <c r="J68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1306</v>
       </c>
@@ -8522,8 +9227,17 @@
       <c r="G69" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I69" t="s">
+        <v>960</v>
+      </c>
+      <c r="J69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1308</v>
       </c>
@@ -8545,8 +9259,17 @@
       <c r="G70" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I70" t="s">
+        <v>960</v>
+      </c>
+      <c r="J70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1310</v>
       </c>
@@ -8568,8 +9291,17 @@
       <c r="G71" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I71" t="s">
+        <v>960</v>
+      </c>
+      <c r="J71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1312</v>
       </c>
@@ -8591,8 +9323,17 @@
       <c r="G72" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I72" t="s">
+        <v>960</v>
+      </c>
+      <c r="J72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1314</v>
       </c>
@@ -8614,8 +9355,17 @@
       <c r="G73" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I73" t="s">
+        <v>960</v>
+      </c>
+      <c r="J73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -8637,8 +9387,17 @@
       <c r="G74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1316</v>
       </c>
@@ -8660,8 +9419,17 @@
       <c r="G75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1318</v>
       </c>
@@ -8683,8 +9451,17 @@
       <c r="G76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1320</v>
       </c>
@@ -8706,8 +9483,17 @@
       <c r="G77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -8729,8 +9515,17 @@
       <c r="G78" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>247</v>
       </c>
@@ -8752,8 +9547,17 @@
       <c r="G79" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1323</v>
       </c>
@@ -8775,8 +9579,17 @@
       <c r="G80" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1324</v>
       </c>
@@ -8798,8 +9611,17 @@
       <c r="G81" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -8821,8 +9643,17 @@
       <c r="G82" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -8844,8 +9675,17 @@
       <c r="G83" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -8867,8 +9707,17 @@
       <c r="G84" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I84" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -8890,8 +9739,17 @@
       <c r="G85" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I85" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -8913,8 +9771,17 @@
       <c r="G86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I86" t="s">
+        <v>41</v>
+      </c>
+      <c r="J86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -8936,8 +9803,17 @@
       <c r="G87" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I87" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -8959,8 +9835,17 @@
       <c r="G88" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I88" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1087</v>
       </c>
@@ -8982,8 +9867,17 @@
       <c r="G89" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1327</v>
       </c>
@@ -9005,8 +9899,17 @@
       <c r="G90" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -9028,8 +9931,17 @@
       <c r="G91" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I91" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1329</v>
       </c>
@@ -9051,8 +9963,17 @@
       <c r="G92" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I92" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1331</v>
       </c>
@@ -9074,8 +9995,17 @@
       <c r="G93" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1333</v>
       </c>
@@ -9097,8 +10027,17 @@
       <c r="G94" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I94" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1335</v>
       </c>
@@ -9120,8 +10059,17 @@
       <c r="G95" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1337</v>
       </c>
@@ -9143,8 +10091,17 @@
       <c r="G96" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I96" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1339</v>
       </c>
@@ -9166,8 +10123,17 @@
       <c r="G97" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1341</v>
       </c>
@@ -9189,8 +10155,17 @@
       <c r="G98" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I98" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1343</v>
       </c>
@@ -9212,8 +10187,17 @@
       <c r="G99" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1345</v>
       </c>
@@ -9235,8 +10219,17 @@
       <c r="G100" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1347</v>
       </c>
@@ -9258,8 +10251,17 @@
       <c r="G101" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1349</v>
       </c>
@@ -9281,8 +10283,17 @@
       <c r="G102" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1351</v>
       </c>
@@ -9304,8 +10315,17 @@
       <c r="G103" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1353</v>
       </c>
@@ -9327,8 +10347,17 @@
       <c r="G104" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1355</v>
       </c>
@@ -9350,8 +10379,17 @@
       <c r="G105" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J105" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1357</v>
       </c>
@@ -9373,8 +10411,17 @@
       <c r="G106" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J106" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1359</v>
       </c>
@@ -9396,8 +10443,17 @@
       <c r="G107" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J107" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1361</v>
       </c>
@@ -9419,8 +10475,17 @@
       <c r="G108" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J108" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1363</v>
       </c>
@@ -9442,8 +10507,17 @@
       <c r="G109" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1365</v>
       </c>
@@ -9465,8 +10539,17 @@
       <c r="G110" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1367</v>
       </c>
@@ -9488,8 +10571,17 @@
       <c r="G111" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1369</v>
       </c>
@@ -9511,8 +10603,17 @@
       <c r="G112" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1371</v>
       </c>
@@ -9534,8 +10635,17 @@
       <c r="G113" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1373</v>
       </c>
@@ -9557,8 +10667,17 @@
       <c r="G114" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>884</v>
       </c>
@@ -9580,8 +10699,17 @@
       <c r="G115" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -9603,8 +10731,17 @@
       <c r="G116" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1375</v>
       </c>
@@ -9626,8 +10763,17 @@
       <c r="G117" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I117" t="s">
+        <v>959</v>
+      </c>
+      <c r="J117" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1377</v>
       </c>
@@ -9649,8 +10795,17 @@
       <c r="G118" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I118" t="s">
+        <v>959</v>
+      </c>
+      <c r="J118" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1379</v>
       </c>
@@ -9672,8 +10827,17 @@
       <c r="G119" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I119" t="s">
+        <v>959</v>
+      </c>
+      <c r="J119" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1381</v>
       </c>
@@ -9695,8 +10859,17 @@
       <c r="G120" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I120" t="s">
+        <v>959</v>
+      </c>
+      <c r="J120" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1020</v>
       </c>
@@ -9718,8 +10891,17 @@
       <c r="G121" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I121" t="s">
+        <v>959</v>
+      </c>
+      <c r="J121" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1383</v>
       </c>
@@ -9741,8 +10923,17 @@
       <c r="G122" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1158</v>
       </c>
@@ -9764,8 +10955,17 @@
       <c r="G123" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J123" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1385</v>
       </c>
@@ -9787,8 +10987,17 @@
       <c r="G124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1387</v>
       </c>
@@ -9810,8 +11019,17 @@
       <c r="G125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1389</v>
       </c>
@@ -9833,8 +11051,17 @@
       <c r="G126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I126" t="s">
+        <v>73</v>
+      </c>
+      <c r="J126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1391</v>
       </c>
@@ -9856,8 +11083,17 @@
       <c r="G127" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I127" t="s">
+        <v>73</v>
+      </c>
+      <c r="J127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>89</v>
       </c>
@@ -9879,8 +11115,17 @@
       <c r="G128" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I128" t="s">
+        <v>73</v>
+      </c>
+      <c r="J128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1392</v>
       </c>
@@ -9902,8 +11147,17 @@
       <c r="G129" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I129" t="s">
+        <v>73</v>
+      </c>
+      <c r="J129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1167</v>
       </c>
@@ -9925,8 +11179,17 @@
       <c r="G130" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I130" t="s">
+        <v>41</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1169</v>
       </c>
@@ -9948,8 +11211,17 @@
       <c r="G131" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1394</v>
       </c>
@@ -9971,8 +11243,17 @@
       <c r="G132" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I132" t="s">
+        <v>41</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1013</v>
       </c>
@@ -9994,8 +11275,17 @@
       <c r="G133" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I133" t="s">
+        <v>41</v>
+      </c>
+      <c r="J133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1397</v>
       </c>
@@ -10017,8 +11307,17 @@
       <c r="G134" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1399</v>
       </c>
@@ -10040,8 +11339,17 @@
       <c r="G135" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1401</v>
       </c>
@@ -10063,8 +11371,17 @@
       <c r="G136" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1206</v>
       </c>
@@ -10086,8 +11403,17 @@
       <c r="G137" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1403</v>
       </c>
@@ -10109,8 +11435,17 @@
       <c r="G138" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1404</v>
       </c>
@@ -10132,8 +11467,17 @@
       <c r="G139" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -10155,8 +11499,17 @@
       <c r="G140" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1135</v>
       </c>
@@ -10178,8 +11531,17 @@
       <c r="G141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J141" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1043</v>
       </c>
@@ -10201,8 +11563,17 @@
       <c r="G142" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1041</v>
       </c>
@@ -10224,8 +11595,17 @@
       <c r="G143" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J143" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1165</v>
       </c>
@@ -10247,8 +11627,17 @@
       <c r="G144" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J144" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1045</v>
       </c>
@@ -10270,8 +11659,17 @@
       <c r="G145" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J145" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1406</v>
       </c>
@@ -10293,8 +11691,17 @@
       <c r="G146" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1408</v>
       </c>
@@ -10316,8 +11723,17 @@
       <c r="G147" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1410</v>
       </c>
@@ -10339,8 +11755,17 @@
       <c r="G148" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J148" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1412</v>
       </c>
@@ -10362,8 +11787,17 @@
       <c r="G149" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J149" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1414</v>
       </c>
@@ -10385,8 +11819,17 @@
       <c r="G150" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J150" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1416</v>
       </c>
@@ -10408,8 +11851,17 @@
       <c r="G151" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J151" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1418</v>
       </c>
@@ -10431,8 +11883,17 @@
       <c r="G152" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1420</v>
       </c>
@@ -10454,8 +11915,17 @@
       <c r="G153" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J153" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1422</v>
       </c>
@@ -10477,8 +11947,17 @@
       <c r="G154" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I154" t="s">
+        <v>960</v>
+      </c>
+      <c r="J154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1424</v>
       </c>
@@ -10500,8 +11979,17 @@
       <c r="G155" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I155" t="s">
+        <v>960</v>
+      </c>
+      <c r="J155" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1426</v>
       </c>
@@ -10523,8 +12011,17 @@
       <c r="G156" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I156" t="s">
+        <v>960</v>
+      </c>
+      <c r="J156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1427</v>
       </c>
@@ -10546,8 +12043,17 @@
       <c r="G157" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1429</v>
       </c>
@@ -10569,8 +12075,17 @@
       <c r="G158" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1431</v>
       </c>
@@ -10592,8 +12107,17 @@
       <c r="G159" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1433</v>
       </c>
@@ -10615,8 +12139,17 @@
       <c r="G160" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J160" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1435</v>
       </c>
@@ -10638,8 +12171,17 @@
       <c r="G161" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1437</v>
       </c>
@@ -10661,8 +12203,17 @@
       <c r="G162" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1439</v>
       </c>
@@ -10684,8 +12235,17 @@
       <c r="G163" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J163" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1441</v>
       </c>
@@ -10707,8 +12267,17 @@
       <c r="G164" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I164" t="s">
+        <v>73</v>
+      </c>
+      <c r="J164" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1443</v>
       </c>
@@ -10730,8 +12299,17 @@
       <c r="G165" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I165" t="s">
+        <v>73</v>
+      </c>
+      <c r="J165" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1445</v>
       </c>
@@ -10753,8 +12331,17 @@
       <c r="G166" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I166" t="s">
+        <v>73</v>
+      </c>
+      <c r="J166" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>932</v>
       </c>
@@ -10776,8 +12363,17 @@
       <c r="G167" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I167" t="s">
+        <v>960</v>
+      </c>
+      <c r="J167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1447</v>
       </c>
@@ -10799,8 +12395,17 @@
       <c r="G168" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I168" t="s">
+        <v>960</v>
+      </c>
+      <c r="J168" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1448</v>
       </c>
@@ -10822,8 +12427,17 @@
       <c r="G169" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I169" t="s">
+        <v>960</v>
+      </c>
+      <c r="J169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1450</v>
       </c>
@@ -10845,8 +12459,17 @@
       <c r="G170" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I170" t="s">
+        <v>960</v>
+      </c>
+      <c r="J170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>936</v>
       </c>
@@ -10868,8 +12491,17 @@
       <c r="G171" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I171" t="s">
+        <v>960</v>
+      </c>
+      <c r="J171" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1165</v>
       </c>
@@ -10891,8 +12523,17 @@
       <c r="G172" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J172" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1452</v>
       </c>
@@ -10914,8 +12555,17 @@
       <c r="G173" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1454</v>
       </c>
@@ -10937,8 +12587,17 @@
       <c r="G174" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1456</v>
       </c>
@@ -10960,8 +12619,17 @@
       <c r="G175" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1013</v>
       </c>
@@ -10983,8 +12651,17 @@
       <c r="G176" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>876</v>
       </c>
@@ -11006,8 +12683,17 @@
       <c r="G177" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>371</v>
       </c>
@@ -11029,8 +12715,17 @@
       <c r="G178" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1458</v>
       </c>
@@ -11052,8 +12747,17 @@
       <c r="G179" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1460</v>
       </c>
@@ -11075,8 +12779,17 @@
       <c r="G180" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1462</v>
       </c>
@@ -11098,8 +12811,17 @@
       <c r="G181" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J181" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1464</v>
       </c>
@@ -11121,8 +12843,17 @@
       <c r="G182" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1466</v>
       </c>
@@ -11144,8 +12875,17 @@
       <c r="G183" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1468</v>
       </c>
@@ -11167,8 +12907,17 @@
       <c r="G184" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1470</v>
       </c>
@@ -11190,8 +12939,17 @@
       <c r="G185" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J185" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1472</v>
       </c>
@@ -11213,8 +12971,17 @@
       <c r="G186" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1087</v>
       </c>
@@ -11236,8 +13003,17 @@
       <c r="G187" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>85</v>
       </c>
@@ -11259,8 +13035,17 @@
       <c r="G188" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J188" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1474</v>
       </c>
@@ -11282,8 +13067,17 @@
       <c r="G189" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J189" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>83</v>
       </c>
@@ -11305,8 +13099,17 @@
       <c r="G190" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -11328,8 +13131,17 @@
       <c r="G191" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J191" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>87</v>
       </c>
@@ -11351,8 +13163,17 @@
       <c r="G192" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J192" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>124</v>
       </c>
@@ -11374,8 +13195,17 @@
       <c r="G193" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J193" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1476</v>
       </c>
@@ -11397,8 +13227,17 @@
       <c r="G194" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I194" t="s">
+        <v>73</v>
+      </c>
+      <c r="J194" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1478</v>
       </c>
@@ -11420,8 +13259,17 @@
       <c r="G195" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I195" t="s">
+        <v>73</v>
+      </c>
+      <c r="J195" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1480</v>
       </c>
@@ -11443,8 +13291,17 @@
       <c r="G196" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I196" t="s">
+        <v>73</v>
+      </c>
+      <c r="J196" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1482</v>
       </c>
@@ -11466,8 +13323,17 @@
       <c r="G197" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I197" t="s">
+        <v>73</v>
+      </c>
+      <c r="J197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1484</v>
       </c>
@@ -11489,8 +13355,17 @@
       <c r="G198" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I198" t="s">
+        <v>73</v>
+      </c>
+      <c r="J198" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1486</v>
       </c>
@@ -11512,8 +13387,17 @@
       <c r="G199" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I199" t="s">
+        <v>73</v>
+      </c>
+      <c r="J199" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1488</v>
       </c>
@@ -11535,8 +13419,17 @@
       <c r="G200" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I200" t="s">
+        <v>73</v>
+      </c>
+      <c r="J200" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1490</v>
       </c>
@@ -11558,8 +13451,17 @@
       <c r="G201" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I201" t="s">
+        <v>73</v>
+      </c>
+      <c r="J201" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1492</v>
       </c>
@@ -11581,8 +13483,17 @@
       <c r="G202" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I202" t="s">
+        <v>73</v>
+      </c>
+      <c r="J202" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1494</v>
       </c>
@@ -11604,8 +13515,17 @@
       <c r="G203" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I203" t="s">
+        <v>73</v>
+      </c>
+      <c r="J203" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1496</v>
       </c>
@@ -11627,8 +13547,17 @@
       <c r="G204" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I204" t="s">
+        <v>73</v>
+      </c>
+      <c r="J204" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1497</v>
       </c>
@@ -11650,8 +13579,17 @@
       <c r="G205" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I205" t="s">
+        <v>73</v>
+      </c>
+      <c r="J205" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1499</v>
       </c>
@@ -11673,8 +13611,17 @@
       <c r="G206" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I206" t="s">
+        <v>73</v>
+      </c>
+      <c r="J206" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1501</v>
       </c>
@@ -11696,8 +13643,17 @@
       <c r="G207" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J207" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>843</v>
       </c>
@@ -11719,8 +13675,17 @@
       <c r="G208" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J208" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1503</v>
       </c>
@@ -11742,8 +13707,17 @@
       <c r="G209" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J209" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1505</v>
       </c>
@@ -11765,8 +13739,17 @@
       <c r="G210" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J210" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1507</v>
       </c>
@@ -11788,8 +13771,17 @@
       <c r="G211" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J211" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1509</v>
       </c>
@@ -11811,8 +13803,17 @@
       <c r="G212" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J212" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>836</v>
       </c>
@@ -11834,8 +13835,17 @@
       <c r="G213" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J213" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>838</v>
       </c>
@@ -11857,8 +13867,17 @@
       <c r="G214" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J214" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1511</v>
       </c>
@@ -11880,8 +13899,17 @@
       <c r="G215" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J215" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1513</v>
       </c>
@@ -11903,8 +13931,17 @@
       <c r="G216" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J216" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1514</v>
       </c>
@@ -11926,8 +13963,17 @@
       <c r="G217" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J217" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>834</v>
       </c>
@@ -11949,8 +13995,17 @@
       <c r="G218" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J218" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1516</v>
       </c>
@@ -11972,8 +14027,17 @@
       <c r="G219" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J219" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1518</v>
       </c>
@@ -11995,8 +14059,17 @@
       <c r="G220" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J220" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1520</v>
       </c>
@@ -12018,8 +14091,17 @@
       <c r="G221" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J221" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>365</v>
       </c>
@@ -12041,8 +14123,17 @@
       <c r="G222" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J222" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1245</v>
       </c>
@@ -12064,8 +14155,17 @@
       <c r="G223" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J223" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1522</v>
       </c>
@@ -12087,8 +14187,17 @@
       <c r="G224" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J224" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1524</v>
       </c>
@@ -12110,8 +14219,17 @@
       <c r="G225" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J225" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1526</v>
       </c>
@@ -12133,8 +14251,17 @@
       <c r="G226" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J226" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1528</v>
       </c>
@@ -12156,8 +14283,17 @@
       <c r="G227" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J227" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1530</v>
       </c>
@@ -12179,8 +14315,17 @@
       <c r="G228" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J228" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1532</v>
       </c>
@@ -12202,8 +14347,17 @@
       <c r="G229" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J229" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1534</v>
       </c>
@@ -12225,8 +14379,17 @@
       <c r="G230" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J230" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1536</v>
       </c>
@@ -12248,8 +14411,17 @@
       <c r="G231" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J231" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>182</v>
       </c>
@@ -12271,8 +14443,17 @@
       <c r="G232" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I232" t="s">
+        <v>959</v>
+      </c>
+      <c r="J232" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>89</v>
       </c>
@@ -12294,8 +14475,17 @@
       <c r="G233" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I233" t="s">
+        <v>959</v>
+      </c>
+      <c r="J233" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>63</v>
       </c>
@@ -12317,8 +14507,17 @@
       <c r="G234" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I234" t="s">
+        <v>960</v>
+      </c>
+      <c r="J234" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -12340,8 +14539,17 @@
       <c r="G235" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I235" t="s">
+        <v>960</v>
+      </c>
+      <c r="J235" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -12363,8 +14571,17 @@
       <c r="G236" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I236" t="s">
+        <v>960</v>
+      </c>
+      <c r="J236" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>122</v>
       </c>
@@ -12386,8 +14603,17 @@
       <c r="G237" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I237" t="s">
+        <v>71</v>
+      </c>
+      <c r="J237" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1538</v>
       </c>
@@ -12409,8 +14635,17 @@
       <c r="G238" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I238" t="s">
+        <v>71</v>
+      </c>
+      <c r="J238" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1540</v>
       </c>
@@ -12432,8 +14667,17 @@
       <c r="G239" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I239" t="s">
+        <v>71</v>
+      </c>
+      <c r="J239" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1542</v>
       </c>
@@ -12455,8 +14699,17 @@
       <c r="G240" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I240" t="s">
+        <v>71</v>
+      </c>
+      <c r="J240" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>848</v>
       </c>
@@ -12478,8 +14731,17 @@
       <c r="G241" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I241" t="s">
+        <v>71</v>
+      </c>
+      <c r="J241" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>521</v>
       </c>
@@ -12501,8 +14763,17 @@
       <c r="G242" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I242" t="s">
+        <v>38</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1544</v>
       </c>
@@ -12524,8 +14795,17 @@
       <c r="G243" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I243" t="s">
+        <v>38</v>
+      </c>
+      <c r="J243" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>523</v>
       </c>
@@ -12547,8 +14827,17 @@
       <c r="G244" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I244" t="s">
+        <v>38</v>
+      </c>
+      <c r="J244" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -12570,8 +14859,17 @@
       <c r="G245" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I245" t="s">
+        <v>73</v>
+      </c>
+      <c r="J245" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>751</v>
       </c>
@@ -12593,8 +14891,17 @@
       <c r="G246" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I246" t="s">
+        <v>73</v>
+      </c>
+      <c r="J246" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>116</v>
       </c>
@@ -12616,8 +14923,17 @@
       <c r="G247" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I247" t="s">
+        <v>73</v>
+      </c>
+      <c r="J247" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1546</v>
       </c>
@@ -12639,8 +14955,17 @@
       <c r="G248" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I248" t="s">
+        <v>73</v>
+      </c>
+      <c r="J248" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>879</v>
       </c>
@@ -12662,8 +14987,17 @@
       <c r="G249" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I249" t="s">
+        <v>960</v>
+      </c>
+      <c r="J249" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>28</v>
       </c>
@@ -12685,8 +15019,17 @@
       <c r="G250" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I250" t="s">
+        <v>960</v>
+      </c>
+      <c r="J250" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>92</v>
       </c>
@@ -12708,8 +15051,17 @@
       <c r="G251" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I251" t="s">
+        <v>960</v>
+      </c>
+      <c r="J251" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>108</v>
       </c>
@@ -12731,8 +15083,17 @@
       <c r="G252" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I252" t="s">
+        <v>960</v>
+      </c>
+      <c r="J252" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>881</v>
       </c>
@@ -12754,8 +15115,17 @@
       <c r="G253" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I253" t="s">
+        <v>960</v>
+      </c>
+      <c r="J253" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>48</v>
       </c>
@@ -12777,8 +15147,17 @@
       <c r="G254" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I254" t="s">
+        <v>960</v>
+      </c>
+      <c r="J254" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>886</v>
       </c>
@@ -12800,8 +15179,17 @@
       <c r="G255" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I255" t="s">
+        <v>960</v>
+      </c>
+      <c r="J255" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>884</v>
       </c>
@@ -12823,8 +15211,17 @@
       <c r="G256" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I256" t="s">
+        <v>960</v>
+      </c>
+      <c r="J256" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -12846,8 +15243,17 @@
       <c r="G257" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I257" t="s">
+        <v>960</v>
+      </c>
+      <c r="J257" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1548</v>
       </c>
@@ -12869,8 +15275,17 @@
       <c r="G258" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J258" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>571</v>
       </c>
@@ -12892,8 +15307,17 @@
       <c r="G259" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J259" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>677</v>
       </c>
@@ -12915,8 +15339,17 @@
       <c r="G260" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I260" t="s">
+        <v>960</v>
+      </c>
+      <c r="J260" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1550</v>
       </c>
@@ -12938,8 +15371,17 @@
       <c r="G261" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I261" t="s">
+        <v>960</v>
+      </c>
+      <c r="J261" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1552</v>
       </c>
@@ -12961,8 +15403,17 @@
       <c r="G262" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I262" t="s">
+        <v>960</v>
+      </c>
+      <c r="J262" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1554</v>
       </c>
@@ -12984,8 +15435,17 @@
       <c r="G263" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I263" t="s">
+        <v>960</v>
+      </c>
+      <c r="J263" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>508</v>
       </c>
@@ -13007,8 +15467,17 @@
       <c r="G264" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I264" t="s">
+        <v>960</v>
+      </c>
+      <c r="J264" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>575</v>
       </c>
@@ -13030,8 +15499,17 @@
       <c r="G265" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I265" t="s">
+        <v>960</v>
+      </c>
+      <c r="J265" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>683</v>
       </c>
@@ -13053,8 +15531,17 @@
       <c r="G266" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I266" t="s">
+        <v>960</v>
+      </c>
+      <c r="J266" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>681</v>
       </c>
@@ -13076,8 +15563,17 @@
       <c r="G267" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I267" t="s">
+        <v>960</v>
+      </c>
+      <c r="J267" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1555</v>
       </c>
@@ -13099,8 +15595,17 @@
       <c r="G268" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I268" t="s">
+        <v>960</v>
+      </c>
+      <c r="J268" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>516</v>
       </c>
@@ -13122,8 +15627,17 @@
       <c r="G269" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I269" t="s">
+        <v>960</v>
+      </c>
+      <c r="J269" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>518</v>
       </c>
@@ -13145,8 +15659,17 @@
       <c r="G270" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I270" t="s">
+        <v>960</v>
+      </c>
+      <c r="J270" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>95</v>
       </c>
@@ -13167,6 +15690,15 @@
       </c>
       <c r="G271" t="s">
         <v>39</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I271" t="s">
+        <v>960</v>
+      </c>
+      <c r="J271" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -39818,8 +42350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F28C973-723A-458A-B18E-3550EF77ACE0}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41199,6 +43731,15 @@
       <c r="G43" t="s">
         <v>38</v>
       </c>
+      <c r="H43" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I43" t="s">
+        <v>960</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -41222,6 +43763,15 @@
       <c r="G44" t="s">
         <v>38</v>
       </c>
+      <c r="H44" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I44" t="s">
+        <v>960</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -41245,6 +43795,15 @@
       <c r="G45" t="s">
         <v>38</v>
       </c>
+      <c r="H45" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I45" t="s">
+        <v>960</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -41268,6 +43827,15 @@
       <c r="G46" t="s">
         <v>38</v>
       </c>
+      <c r="H46" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I46" t="s">
+        <v>960</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -41291,6 +43859,15 @@
       <c r="G47" t="s">
         <v>38</v>
       </c>
+      <c r="H47" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -41314,8 +43891,17 @@
       <c r="G48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1036</v>
       </c>
@@ -41337,8 +43923,17 @@
       <c r="G49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1038</v>
       </c>
@@ -41360,8 +43955,17 @@
       <c r="G50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I50" t="s">
+        <v>960</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -41383,8 +43987,17 @@
       <c r="G51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I51" t="s">
+        <v>960</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1041</v>
       </c>
@@ -41406,8 +44019,17 @@
       <c r="G52" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I52" t="s">
+        <v>960</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1043</v>
       </c>
@@ -41429,8 +44051,17 @@
       <c r="G53" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I53" t="s">
+        <v>960</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1045</v>
       </c>
@@ -41452,8 +44083,17 @@
       <c r="G54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I54" t="s">
+        <v>960</v>
+      </c>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1047</v>
       </c>
@@ -41475,8 +44115,17 @@
       <c r="G55" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I55" t="s">
+        <v>960</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1049</v>
       </c>
@@ -41498,8 +44147,17 @@
       <c r="G56" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1051</v>
       </c>
@@ -41521,8 +44179,17 @@
       <c r="G57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1053</v>
       </c>
@@ -41544,8 +44211,17 @@
       <c r="G58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1054</v>
       </c>
@@ -41567,8 +44243,17 @@
       <c r="G59" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1056</v>
       </c>
@@ -41590,8 +44275,17 @@
       <c r="G60" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>555</v>
       </c>
@@ -41613,8 +44307,17 @@
       <c r="G61" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1058</v>
       </c>
@@ -41636,8 +44339,17 @@
       <c r="G62" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1060</v>
       </c>
@@ -41659,8 +44371,17 @@
       <c r="G63" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1061</v>
       </c>
@@ -41682,8 +44403,17 @@
       <c r="G64" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1063</v>
       </c>
@@ -41705,8 +44435,17 @@
       <c r="G65" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1065</v>
       </c>
@@ -41728,8 +44467,17 @@
       <c r="G66" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I66" t="s">
+        <v>960</v>
+      </c>
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1067</v>
       </c>
@@ -41751,8 +44499,17 @@
       <c r="G67" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I67" t="s">
+        <v>960</v>
+      </c>
+      <c r="J67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1069</v>
       </c>
@@ -41774,8 +44531,17 @@
       <c r="G68" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1071</v>
       </c>
@@ -41797,8 +44563,17 @@
       <c r="G69" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1073</v>
       </c>
@@ -41820,8 +44595,17 @@
       <c r="G70" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -41843,8 +44627,17 @@
       <c r="G71" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1075</v>
       </c>
@@ -41866,8 +44659,17 @@
       <c r="G72" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I72" t="s">
+        <v>150</v>
+      </c>
+      <c r="J72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1077</v>
       </c>
@@ -41889,8 +44691,17 @@
       <c r="G73" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I73" t="s">
+        <v>150</v>
+      </c>
+      <c r="J73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -41912,8 +44723,17 @@
       <c r="G74" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I74" t="s">
+        <v>150</v>
+      </c>
+      <c r="J74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -41935,8 +44755,17 @@
       <c r="G75" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I75" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1079</v>
       </c>
@@ -41958,8 +44787,17 @@
       <c r="G76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -41981,8 +44819,17 @@
       <c r="G77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -42004,8 +44851,17 @@
       <c r="G78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1081</v>
       </c>
@@ -42027,8 +44883,17 @@
       <c r="G79" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1083</v>
       </c>
@@ -42050,8 +44915,17 @@
       <c r="G80" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1085</v>
       </c>
@@ -42073,8 +44947,17 @@
       <c r="G81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1087</v>
       </c>
@@ -42096,8 +44979,17 @@
       <c r="G82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -42119,8 +45011,17 @@
       <c r="G83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1089</v>
       </c>
@@ -42142,8 +45043,17 @@
       <c r="G84" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>219</v>
       </c>
@@ -42165,8 +45075,17 @@
       <c r="G85" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -42188,8 +45107,17 @@
       <c r="G86" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -42211,8 +45139,17 @@
       <c r="G87" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1092</v>
       </c>
@@ -42234,8 +45171,17 @@
       <c r="G88" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1094</v>
       </c>
@@ -42257,8 +45203,17 @@
       <c r="G89" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>419</v>
       </c>
@@ -42280,8 +45235,17 @@
       <c r="G90" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -42303,8 +45267,17 @@
       <c r="G91" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -42326,8 +45299,17 @@
       <c r="G92" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>570</v>
       </c>
@@ -42349,8 +45331,17 @@
       <c r="G93" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>571</v>
       </c>
@@ -42372,8 +45363,17 @@
       <c r="G94" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1096</v>
       </c>
@@ -42395,8 +45395,17 @@
       <c r="G95" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I95" t="s">
+        <v>960</v>
+      </c>
+      <c r="J95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -42418,8 +45427,17 @@
       <c r="G96" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I96" t="s">
+        <v>960</v>
+      </c>
+      <c r="J96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1098</v>
       </c>
@@ -42441,8 +45459,17 @@
       <c r="G97" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I97" t="s">
+        <v>960</v>
+      </c>
+      <c r="J97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1100</v>
       </c>
@@ -42464,8 +45491,17 @@
       <c r="G98" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I98" t="s">
+        <v>960</v>
+      </c>
+      <c r="J98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1102</v>
       </c>
@@ -42487,8 +45523,17 @@
       <c r="G99" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I99" t="s">
+        <v>960</v>
+      </c>
+      <c r="J99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1104</v>
       </c>
@@ -42510,8 +45555,17 @@
       <c r="G100" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I100" t="s">
+        <v>960</v>
+      </c>
+      <c r="J100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1106</v>
       </c>
@@ -42533,8 +45587,17 @@
       <c r="G101" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I101" t="s">
+        <v>960</v>
+      </c>
+      <c r="J101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1108</v>
       </c>
@@ -42556,8 +45619,17 @@
       <c r="G102" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I102" t="s">
+        <v>960</v>
+      </c>
+      <c r="J102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1110</v>
       </c>
@@ -42579,8 +45651,17 @@
       <c r="G103" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I103" t="s">
+        <v>960</v>
+      </c>
+      <c r="J103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1112</v>
       </c>
@@ -42602,8 +45683,17 @@
       <c r="G104" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I104" t="s">
+        <v>960</v>
+      </c>
+      <c r="J104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1114</v>
       </c>
@@ -42625,8 +45715,17 @@
       <c r="G105" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I105" t="s">
+        <v>960</v>
+      </c>
+      <c r="J105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1116</v>
       </c>
@@ -42648,8 +45747,17 @@
       <c r="G106" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I106" t="s">
+        <v>960</v>
+      </c>
+      <c r="J106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1118</v>
       </c>
@@ -42671,8 +45779,17 @@
       <c r="G107" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I107" t="s">
+        <v>960</v>
+      </c>
+      <c r="J107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1120</v>
       </c>
@@ -42694,8 +45811,17 @@
       <c r="G108" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J108" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1122</v>
       </c>
@@ -42717,8 +45843,17 @@
       <c r="G109" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J109" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -42740,8 +45875,17 @@
       <c r="G110" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J110" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -42763,8 +45907,17 @@
       <c r="G111" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J111" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>573</v>
       </c>
@@ -42786,8 +45939,17 @@
       <c r="G112" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>575</v>
       </c>
@@ -42809,8 +45971,17 @@
       <c r="G113" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>577</v>
       </c>
@@ -42832,8 +46003,17 @@
       <c r="G114" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1124</v>
       </c>
@@ -42855,8 +46035,17 @@
       <c r="G115" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1126</v>
       </c>
@@ -42878,8 +46067,17 @@
       <c r="G116" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1128</v>
       </c>
@@ -42901,8 +46099,17 @@
       <c r="G117" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J117" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1130</v>
       </c>
@@ -42924,8 +46131,17 @@
       <c r="G118" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1132</v>
       </c>
@@ -42947,8 +46163,17 @@
       <c r="G119" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1133</v>
       </c>
@@ -42970,8 +46195,17 @@
       <c r="G120" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>95</v>
       </c>
@@ -42993,8 +46227,17 @@
       <c r="G121" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>158</v>
       </c>
@@ -43016,8 +46259,17 @@
       <c r="G122" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>153</v>
       </c>
@@ -43039,8 +46291,17 @@
       <c r="G123" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J123" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>120</v>
       </c>
@@ -43062,8 +46323,17 @@
       <c r="G124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1135</v>
       </c>
@@ -43085,8 +46355,17 @@
       <c r="G125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1137</v>
       </c>
@@ -43108,8 +46387,17 @@
       <c r="G126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1139</v>
       </c>
@@ -43131,8 +46419,17 @@
       <c r="G127" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1141</v>
       </c>
@@ -43154,8 +46451,17 @@
       <c r="G128" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I128" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1143</v>
       </c>
@@ -43177,8 +46483,17 @@
       <c r="G129" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I129" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1145</v>
       </c>
@@ -43200,8 +46515,17 @@
       <c r="G130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1147</v>
       </c>
@@ -43223,8 +46547,17 @@
       <c r="G131" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I131" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1149</v>
       </c>
@@ -43246,8 +46579,17 @@
       <c r="G132" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I132" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1151</v>
       </c>
@@ -43269,8 +46611,17 @@
       <c r="G133" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I133" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>46</v>
       </c>
@@ -43292,8 +46643,17 @@
       <c r="G134" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -43315,8 +46675,17 @@
       <c r="G135" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J135" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1153</v>
       </c>
@@ -43338,8 +46707,17 @@
       <c r="G136" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J136" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -43361,8 +46739,17 @@
       <c r="G137" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J137" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1154</v>
       </c>
@@ -43384,8 +46771,17 @@
       <c r="G138" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J138" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1156</v>
       </c>
@@ -43407,8 +46803,17 @@
       <c r="G139" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I139" t="s">
+        <v>960</v>
+      </c>
+      <c r="J139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1158</v>
       </c>
@@ -43430,8 +46835,17 @@
       <c r="G140" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I140" t="s">
+        <v>960</v>
+      </c>
+      <c r="J140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1160</v>
       </c>
@@ -43453,8 +46867,17 @@
       <c r="G141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I141" t="s">
+        <v>960</v>
+      </c>
+      <c r="J141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1162</v>
       </c>
@@ -43476,8 +46899,17 @@
       <c r="G142" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I142" t="s">
+        <v>960</v>
+      </c>
+      <c r="J142" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>200</v>
       </c>
@@ -43499,8 +46931,17 @@
       <c r="G143" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I143" t="s">
+        <v>959</v>
+      </c>
+      <c r="J143" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -43522,8 +46963,17 @@
       <c r="G144" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I144" t="s">
+        <v>959</v>
+      </c>
+      <c r="J144" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -43545,8 +46995,17 @@
       <c r="G145" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I145" t="s">
+        <v>959</v>
+      </c>
+      <c r="J145" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>204</v>
       </c>
@@ -43568,8 +47027,17 @@
       <c r="G146" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I146" t="s">
+        <v>959</v>
+      </c>
+      <c r="J146" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1013</v>
       </c>
@@ -43591,8 +47059,17 @@
       <c r="G147" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I147" t="s">
+        <v>960</v>
+      </c>
+      <c r="J147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1165</v>
       </c>
@@ -43614,8 +47091,17 @@
       <c r="G148" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I148" t="s">
+        <v>960</v>
+      </c>
+      <c r="J148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1167</v>
       </c>
@@ -43637,8 +47123,17 @@
       <c r="G149" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I149" t="s">
+        <v>960</v>
+      </c>
+      <c r="J149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1169</v>
       </c>
@@ -43660,8 +47155,17 @@
       <c r="G150" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I150" t="s">
+        <v>960</v>
+      </c>
+      <c r="J150" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1171</v>
       </c>
@@ -43683,8 +47187,17 @@
       <c r="G151" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I151" t="s">
+        <v>960</v>
+      </c>
+      <c r="J151" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1172</v>
       </c>
@@ -43706,8 +47219,17 @@
       <c r="G152" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I152" t="s">
+        <v>960</v>
+      </c>
+      <c r="J152" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1174</v>
       </c>
@@ -43729,8 +47251,17 @@
       <c r="G153" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I153" t="s">
+        <v>960</v>
+      </c>
+      <c r="J153" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>371</v>
       </c>
@@ -43752,8 +47283,17 @@
       <c r="G154" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>412</v>
       </c>
@@ -43775,8 +47315,17 @@
       <c r="G155" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J155" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1175</v>
       </c>
@@ -43798,8 +47347,17 @@
       <c r="G156" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -43821,8 +47379,17 @@
       <c r="G157" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J157" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1019</v>
       </c>
@@ -43844,8 +47411,17 @@
       <c r="G158" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -43867,8 +47443,17 @@
       <c r="G159" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J159" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1178</v>
       </c>
@@ -43890,8 +47475,17 @@
       <c r="G160" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1180</v>
       </c>
@@ -43913,8 +47507,17 @@
       <c r="G161" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1182</v>
       </c>
@@ -43936,8 +47539,17 @@
       <c r="G162" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J162" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1184</v>
       </c>
@@ -43959,8 +47571,17 @@
       <c r="G163" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J163" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1186</v>
       </c>
@@ -43982,8 +47603,17 @@
       <c r="G164" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J164" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1188</v>
       </c>
@@ -44005,8 +47635,17 @@
       <c r="G165" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1190</v>
       </c>
@@ -44028,8 +47667,17 @@
       <c r="G166" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J166" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1192</v>
       </c>
@@ -44051,8 +47699,17 @@
       <c r="G167" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J167" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1194</v>
       </c>
@@ -44074,8 +47731,17 @@
       <c r="G168" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J168" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1195</v>
       </c>
@@ -44097,8 +47763,17 @@
       <c r="G169" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J169" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -44120,8 +47795,17 @@
       <c r="G170" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1197</v>
       </c>
@@ -44143,8 +47827,17 @@
       <c r="G171" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J171" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>100</v>
       </c>
@@ -44166,8 +47859,17 @@
       <c r="G172" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I172" t="s">
+        <v>73</v>
+      </c>
+      <c r="J172" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1199</v>
       </c>
@@ -44189,8 +47891,17 @@
       <c r="G173" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I173" t="s">
+        <v>73</v>
+      </c>
+      <c r="J173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1201</v>
       </c>
@@ -44212,8 +47923,17 @@
       <c r="G174" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I174" t="s">
+        <v>73</v>
+      </c>
+      <c r="J174" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>363</v>
       </c>
@@ -44235,8 +47955,17 @@
       <c r="G175" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I175" t="s">
+        <v>73</v>
+      </c>
+      <c r="J175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>483</v>
       </c>
@@ -44258,8 +47987,17 @@
       <c r="G176" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I176" t="s">
+        <v>73</v>
+      </c>
+      <c r="J176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>417</v>
       </c>
@@ -44281,8 +48019,17 @@
       <c r="G177" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I177" t="s">
+        <v>73</v>
+      </c>
+      <c r="J177" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1202</v>
       </c>
@@ -44304,8 +48051,17 @@
       <c r="G178" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I178" t="s">
+        <v>73</v>
+      </c>
+      <c r="J178" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1203</v>
       </c>
@@ -44327,8 +48083,17 @@
       <c r="G179" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I179" t="s">
+        <v>73</v>
+      </c>
+      <c r="J179" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>167</v>
       </c>
@@ -44350,8 +48115,17 @@
       <c r="G180" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I180" t="s">
+        <v>73</v>
+      </c>
+      <c r="J180" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1204</v>
       </c>
@@ -44373,8 +48147,17 @@
       <c r="G181" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I181" t="s">
+        <v>73</v>
+      </c>
+      <c r="J181" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -44396,8 +48179,17 @@
       <c r="G182" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I182" t="s">
+        <v>73</v>
+      </c>
+      <c r="J182" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1206</v>
       </c>
@@ -44419,8 +48211,17 @@
       <c r="G183" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J183" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1208</v>
       </c>
@@ -44442,8 +48243,17 @@
       <c r="G184" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J184" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1210</v>
       </c>
@@ -44465,8 +48275,17 @@
       <c r="G185" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J185" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1212</v>
       </c>
@@ -44488,8 +48307,17 @@
       <c r="G186" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I186" t="s">
+        <v>38</v>
+      </c>
+      <c r="J186" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>111</v>
       </c>
@@ -44511,8 +48339,17 @@
       <c r="G187" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I187" t="s">
+        <v>38</v>
+      </c>
+      <c r="J187" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1213</v>
       </c>
@@ -44534,8 +48371,17 @@
       <c r="G188" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I188" t="s">
+        <v>38</v>
+      </c>
+      <c r="J188" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1215</v>
       </c>
@@ -44557,8 +48403,17 @@
       <c r="G189" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I189" t="s">
+        <v>959</v>
+      </c>
+      <c r="J189" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>128</v>
       </c>
@@ -44580,8 +48435,17 @@
       <c r="G190" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I190" t="s">
+        <v>959</v>
+      </c>
+      <c r="J190" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>129</v>
       </c>
@@ -44603,8 +48467,17 @@
       <c r="G191" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I191" t="s">
+        <v>959</v>
+      </c>
+      <c r="J191" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -44626,8 +48499,17 @@
       <c r="G192" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I192" t="s">
+        <v>959</v>
+      </c>
+      <c r="J192" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -44649,8 +48531,17 @@
       <c r="G193" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I193" t="s">
+        <v>959</v>
+      </c>
+      <c r="J193" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1217</v>
       </c>
@@ -44672,8 +48563,17 @@
       <c r="G194" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I194" t="s">
+        <v>960</v>
+      </c>
+      <c r="J194" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1219</v>
       </c>
@@ -44695,8 +48595,17 @@
       <c r="G195" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I195" t="s">
+        <v>960</v>
+      </c>
+      <c r="J195" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1221</v>
       </c>
@@ -44718,8 +48627,17 @@
       <c r="G196" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I196" t="s">
+        <v>960</v>
+      </c>
+      <c r="J196" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1223</v>
       </c>
@@ -44741,8 +48659,17 @@
       <c r="G197" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I197" t="s">
+        <v>960</v>
+      </c>
+      <c r="J197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1224</v>
       </c>
@@ -44764,8 +48691,17 @@
       <c r="G198" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I198" t="s">
+        <v>960</v>
+      </c>
+      <c r="J198" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>573</v>
       </c>
@@ -44787,8 +48723,17 @@
       <c r="G199" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I199" t="s">
+        <v>960</v>
+      </c>
+      <c r="J199" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>575</v>
       </c>
@@ -44810,8 +48755,17 @@
       <c r="G200" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I200" t="s">
+        <v>960</v>
+      </c>
+      <c r="J200" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1226</v>
       </c>
@@ -44833,8 +48787,17 @@
       <c r="G201" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I201" t="s">
+        <v>960</v>
+      </c>
+      <c r="J201" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>581</v>
       </c>
@@ -44855,6 +48818,15 @@
       </c>
       <c r="G202" t="s">
         <v>39</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I202" t="s">
+        <v>960</v>
+      </c>
+      <c r="J202" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
